--- a/backend/common/data/中学英文名.xlsx
+++ b/backend/common/data/中学英文名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="15740"/>
   </bookViews>
   <sheets>
     <sheet name="ssp_2024_2025_en" sheetId="1" r:id="rId1"/>
@@ -3362,10 +3362,10 @@
     <t>http://www.npc.edu.hk</t>
   </si>
   <si>
-    <t>炮台山循道卫理中学</t>
-  </si>
-  <si>
-    <t>炮臺山循道衛理中學</t>
+    <t>炮台山循道衞理中学</t>
+  </si>
+  <si>
+    <t>炮臺山循道衞理中學</t>
   </si>
   <si>
     <t>Fortress Hill Methodist Secondary School</t>
@@ -7832,8 +7832,8 @@
   <sheetPr/>
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="60" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="60" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B360" sqref="B360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="5"/>
